--- a/xlsx/商业道德_intext.xlsx
+++ b/xlsx/商业道德_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E6%83%A1</t>
   </si>
   <si>
-    <t>善惡</t>
+    <t>善恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用倫理學</t>
+    <t>应用伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境倫理學</t>
+    <t>环境伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>專業倫理</t>
+    <t>专业伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>企業社會責任</t>
+    <t>企业社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B2%BB%E7%90%86</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E4%BC%A6%E7%90%86</t>
